--- a/ig/ch-epreg/StructureDefinition-ch-epreg-encounter-mother.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-encounter-mother.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3963" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="615">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile constrains the Encounter resource to represent a pregnancy visit from the mother's perspective.</t>
+    <t>This profile constrains the Encounter resource to represent a pregnancy examination from the mother's perspective.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -456,65 +456,27 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Encounter.extension:nextVisit</t>
-  </si>
-  <si>
-    <t>nextVisit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-epreg/StructureDefinition/ch-epreg-ext-planned-next-preg-visit}
+    <t>Encounter.extension:examinationSequence</t>
+  </si>
+  <si>
+    <t>examinationSequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-epreg/StructureDefinition/ch-epreg-ext-examination-sequence}
 </t>
   </si>
   <si>
-    <t>CH EPREG Extension: Planned Next Pregnancy Visit</t>
-  </si>
-  <si>
-    <t>This extension represents the planned next pregnancy visit.</t>
+    <t>CH EPREG Extension: Examination Sequence</t>
+  </si>
+  <si>
+    <t>This extension represents the sequential number of a pregnancy-related examination (e.g., 1 = first examination, 2 = second examination, or second ultrasound). It indicates the order of occurrence within the pregnancy.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Nächste Kontrolle | Prochain contrôle</t>
-  </si>
-  <si>
-    <t>Encounter.extension:visitNumber</t>
-  </si>
-  <si>
-    <t>visitNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-epreg/StructureDefinition/ch-epreg-ext-number}
-</t>
-  </si>
-  <si>
-    <t>CH EPREG Extension: Number</t>
-  </si>
-  <si>
-    <t>This extension represents the number, for example, the number of the visit or an examination (e.g. ultrasound).</t>
-  </si>
-  <si>
     <t>Nummer | Numéro</t>
-  </si>
-  <si>
-    <t>Encounter.extension:note</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-epreg/StructureDefinition/ch-epreg-ext-note}
-</t>
-  </si>
-  <si>
-    <t>CH EPREG Extension: Note</t>
-  </si>
-  <si>
-    <t>This extension represents a comment.</t>
-  </si>
-  <si>
-    <t>Bemerkungen | Remarques</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -689,7 +651,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -786,7 +748,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -974,7 +936,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -998,7 +960,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1101,7 +1063,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1146,7 +1108,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1172,7 +1134,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1303,7 +1265,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1446,7 +1408,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1464,7 +1426,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1499,7 +1461,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1530,7 +1492,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1552,7 +1514,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1747,7 +1709,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1768,7 +1730,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1789,7 +1751,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1914,7 +1876,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -2273,7 +2235,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO107"/>
+  <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3499,41 +3461,43 @@
         <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>82</v>
       </c>
@@ -3581,7 +3545,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3590,19 +3554,19 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>82</v>
@@ -3613,14 +3577,12 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C12" t="s" s="2">
         <v>156</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>82</v>
       </c>
@@ -3629,7 +3591,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3638,7 +3600,7 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>157</v>
@@ -3686,19 +3648,17 @@
         <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3707,37 +3667,39 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3750,26 +3712,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
       </c>
@@ -3778,7 +3736,7 @@
         <v>82</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>82</v>
@@ -3817,7 +3775,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3829,30 +3787,30 @@
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3863,7 +3821,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
@@ -3872,16 +3830,16 @@
         <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3920,58 +3878,58 @@
         <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3987,18 +3945,20 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -4008,46 +3968,46 @@
         <v>82</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="T15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4059,30 +4019,30 @@
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4099,13 +4059,13 @@
         <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>184</v>
@@ -4113,8 +4073,12 @@
       <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
       </c>
@@ -4138,13 +4102,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -4162,7 +4126,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4174,7 +4138,7 @@
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>82</v>
@@ -4183,32 +4147,32 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
@@ -4217,21 +4181,23 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
@@ -4255,66 +4221,66 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AD17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4322,7 +4288,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -4331,25 +4297,25 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4362,7 +4328,7 @@
         <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>82</v>
@@ -4374,13 +4340,13 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4398,7 +4364,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4419,21 +4385,21 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>133</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4441,7 +4407,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
@@ -4456,20 +4422,18 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4481,7 +4445,7 @@
         <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>82</v>
@@ -4493,13 +4457,13 @@
         <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
@@ -4517,7 +4481,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4538,21 +4502,21 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4560,7 +4524,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -4575,20 +4539,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4600,7 +4560,7 @@
         <v>82</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>82</v>
@@ -4636,7 +4596,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4657,21 +4617,21 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4679,7 +4639,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>90</v>
@@ -4694,16 +4654,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4717,7 +4677,7 @@
         <v>82</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>82</v>
@@ -4753,7 +4713,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4774,21 +4734,21 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4796,7 +4756,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
@@ -4805,21 +4765,23 @@
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4829,7 +4791,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4844,13 +4806,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4871,7 +4833,7 @@
         <v>241</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>90</v>
@@ -4886,24 +4848,24 @@
         <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4914,7 +4876,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4923,19 +4885,19 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4985,13 +4947,13 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
@@ -5006,21 +4968,21 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>252</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5028,7 +4990,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>90</v>
@@ -5037,23 +4999,21 @@
         <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5063,7 +5023,7 @@
         <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>82</v>
@@ -5078,13 +5038,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5102,10 +5062,10 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>90</v>
@@ -5114,34 +5074,34 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5160,16 +5120,16 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5219,7 +5179,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5231,7 +5191,7 @@
         <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
@@ -5240,7 +5200,7 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
@@ -5251,42 +5211,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5334,19 +5298,19 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5355,7 +5319,7 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
@@ -5366,21 +5330,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5392,17 +5356,15 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5427,13 +5389,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5451,19 +5413,19 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5472,7 +5434,7 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
@@ -5483,46 +5445,42 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5570,19 +5528,19 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5591,7 +5549,7 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
@@ -5602,10 +5560,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5625,16 +5583,16 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5664,10 +5622,10 @@
         <v>200</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5685,7 +5643,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>90</v>
@@ -5706,13 +5664,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
@@ -5728,10 +5686,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5743,7 +5701,7 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>278</v>
@@ -5803,10 +5761,10 @@
         <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -5821,7 +5779,7 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
@@ -5843,7 +5801,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>90</v>
@@ -5855,16 +5813,16 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5891,13 +5849,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5915,10 +5873,10 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>90</v>
@@ -5927,7 +5885,7 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -5936,25 +5894,25 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5973,15 +5931,17 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6030,7 +5990,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>181</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6042,7 +6002,7 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6051,7 +6011,7 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -6062,42 +6022,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -6145,19 +6109,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6166,7 +6130,7 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
@@ -6177,21 +6141,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6203,17 +6167,15 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6238,13 +6200,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6262,19 +6224,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6283,7 +6245,7 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
@@ -6294,46 +6256,42 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6381,19 +6339,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6402,7 +6360,7 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6413,10 +6371,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6424,10 +6382,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6436,18 +6394,20 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6472,13 +6432,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>212</v>
+        <v>293</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6496,13 +6456,13 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
@@ -6514,24 +6474,24 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6539,7 +6499,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6551,16 +6511,16 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6587,13 +6547,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6611,10 +6571,10 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>90</v>
@@ -6629,24 +6589,24 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6657,7 +6617,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6666,20 +6626,18 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6704,37 +6662,35 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y38" s="2"/>
+      <c r="Z38" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
@@ -6746,32 +6702,32 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>309</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
@@ -6786,15 +6742,17 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6819,13 +6777,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6843,7 +6801,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6858,27 +6816,27 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>187</v>
+        <v>320</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6901,13 +6859,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>172</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>319</v>
+        <v>173</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6934,11 +6892,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6956,7 +6916,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>174</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6968,7 +6928,7 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
@@ -6977,13 +6937,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>321</v>
+        <v>175</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>322</v>
+        <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -6995,14 +6955,14 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7011,19 +6971,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7061,54 +7021,54 @@
         <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>175</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7116,7 +7076,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>90</v>
@@ -7128,18 +7088,20 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>184</v>
+        <v>326</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7188,7 +7150,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>186</v>
+        <v>329</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7197,10 +7159,10 @@
         <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7209,7 +7171,7 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>82</v>
@@ -7220,21 +7182,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7243,19 +7205,19 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7281,43 +7243,43 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7326,7 +7288,7 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
@@ -7337,10 +7299,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7348,7 +7310,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>90</v>
@@ -7363,16 +7325,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7422,7 +7384,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7431,7 +7393,7 @@
         <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>102</v>
@@ -7443,7 +7405,7 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
@@ -7454,10 +7416,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7480,16 +7442,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7515,31 +7477,31 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="Z45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7571,10 +7533,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7585,7 +7547,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7597,7 +7559,7 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>351</v>
@@ -7605,9 +7567,7 @@
       <c r="M46" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7656,13 +7616,13 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
@@ -7674,16 +7634,16 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="47">
@@ -7695,14 +7655,14 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7711,20 +7671,18 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>183</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7773,13 +7731,13 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
@@ -7791,10 +7749,10 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>133</v>
+        <v>362</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
@@ -7805,10 +7763,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7816,7 +7774,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
@@ -7831,13 +7789,13 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>362</v>
+        <v>253</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7888,7 +7846,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7906,35 +7864,35 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>187</v>
+        <v>367</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -7946,13 +7904,13 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>370</v>
+        <v>171</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>371</v>
+        <v>172</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8003,28 +7961,28 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>368</v>
+        <v>174</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>374</v>
+        <v>175</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -8035,18 +7993,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -8058,18 +8016,20 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>178</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8118,7 +8078,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8130,62 +8090,66 @@
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>379</v>
+        <v>175</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8233,19 +8197,19 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8254,7 +8218,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8265,14 +8229,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8288,19 +8252,19 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>190</v>
+        <v>373</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>191</v>
+        <v>374</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>165</v>
+        <v>375</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8326,13 +8290,11 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8350,7 +8312,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>193</v>
+        <v>372</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8362,66 +8324,62 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>187</v>
+        <v>378</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>82</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>273</v>
+        <v>381</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8469,19 +8427,19 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8490,21 +8448,21 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>133</v>
+        <v>383</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8512,10 +8470,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8527,17 +8485,15 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>207</v>
+        <v>386</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8562,11 +8518,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8584,13 +8542,13 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
@@ -8599,27 +8557,27 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8642,13 +8600,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>393</v>
+        <v>172</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>394</v>
+        <v>173</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8699,7 +8657,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>392</v>
+        <v>174</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8711,7 +8669,7 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8720,32 +8678,32 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>395</v>
+        <v>175</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8754,18 +8712,20 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>398</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8802,54 +8762,54 @@
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>397</v>
+        <v>181</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>403</v>
+        <v>175</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8857,7 +8817,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>90</v>
@@ -8869,18 +8829,20 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>184</v>
+        <v>326</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8929,7 +8891,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>186</v>
+        <v>329</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8938,10 +8900,10 @@
         <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -8950,7 +8912,7 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -8961,21 +8923,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -8984,19 +8946,19 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9022,43 +8984,43 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9067,7 +9029,7 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -9078,10 +9040,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9089,7 +9051,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>90</v>
@@ -9104,16 +9066,16 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9163,7 +9125,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9172,7 +9134,7 @@
         <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
@@ -9184,7 +9146,7 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9195,10 +9157,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9221,16 +9183,16 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9256,31 +9218,31 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="Z60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9312,10 +9274,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9326,7 +9288,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9338,17 +9300,15 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>169</v>
+        <v>401</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9397,13 +9357,13 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
@@ -9415,24 +9375,24 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9440,7 +9400,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>90</v>
@@ -9452,19 +9412,19 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9514,7 +9474,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9532,24 +9492,24 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>133</v>
+        <v>411</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9560,7 +9520,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9569,16 +9529,16 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>413</v>
+        <v>171</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>414</v>
+        <v>172</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>415</v>
+        <v>173</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9629,53 +9589,53 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>412</v>
+        <v>174</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>416</v>
+        <v>175</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9687,16 +9647,16 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>419</v>
+        <v>178</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>420</v>
+        <v>179</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>421</v>
+        <v>153</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9734,54 +9694,54 @@
         <v>82</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>418</v>
+        <v>181</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>423</v>
+        <v>175</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9789,7 +9749,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
@@ -9801,18 +9761,20 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>183</v>
+        <v>417</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>184</v>
+        <v>418</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9861,7 +9823,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>186</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9870,44 +9832,44 @@
         <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -9916,25 +9878,27 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>417</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>190</v>
+        <v>427</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>191</v>
+        <v>428</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>165</v>
+        <v>429</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="R66" t="s" s="2">
         <v>82</v>
       </c>
@@ -9966,54 +9930,54 @@
         <v>82</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>193</v>
+        <v>431</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>187</v>
+        <v>432</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10021,7 +9985,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>90</v>
@@ -10033,19 +9997,19 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10095,7 +10059,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10104,44 +10068,44 @@
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10153,24 +10117,22 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>429</v>
+        <v>195</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q68" t="s" s="2">
-        <v>442</v>
-      </c>
+      <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10190,13 +10152,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10214,53 +10176,53 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10269,19 +10231,19 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10331,13 +10293,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10349,28 +10311,28 @@
         <v>82</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>452</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10389,17 +10351,15 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N70" t="s" s="2">
         <v>457</v>
       </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10424,13 +10384,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10448,7 +10408,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10466,35 +10426,35 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10503,20 +10463,18 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>465</v>
+        <v>171</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>466</v>
+        <v>172</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10565,46 +10523,46 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>464</v>
+        <v>174</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>461</v>
+        <v>175</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10620,18 +10578,20 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>468</v>
+        <v>178</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10680,7 +10640,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>467</v>
+        <v>181</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10692,7 +10652,7 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -10701,7 +10661,7 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>470</v>
+        <v>175</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10712,42 +10672,46 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -10795,19 +10759,19 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -10816,7 +10780,7 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -10827,21 +10791,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>162</v>
+        <v>463</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -10850,19 +10814,19 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>135</v>
+        <v>464</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>190</v>
+        <v>465</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>191</v>
+        <v>466</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>165</v>
+        <v>445</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10912,78 +10876,74 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>193</v>
+        <v>462</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>187</v>
+        <v>468</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>273</v>
+        <v>471</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11007,13 +10967,13 @@
         <v>82</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>82</v>
@@ -11031,19 +10991,19 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>275</v>
+        <v>470</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11052,7 +11012,7 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11063,18 +11023,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>90</v>
@@ -11086,7 +11046,7 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>476</v>
@@ -11097,9 +11057,7 @@
       <c r="M76" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="N76" t="s" s="2">
-        <v>457</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11148,10 +11106,10 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>90</v>
@@ -11166,24 +11124,24 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AM76" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AN76" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11194,7 +11152,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11206,15 +11164,17 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>207</v>
+        <v>481</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11239,13 +11199,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>486</v>
+        <v>82</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11263,13 +11223,13 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
@@ -11284,7 +11244,7 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>187</v>
+        <v>485</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11295,10 +11255,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11321,15 +11281,17 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11378,7 +11340,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11399,7 +11361,7 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11410,10 +11372,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11424,7 +11386,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11436,17 +11398,15 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>493</v>
+        <v>171</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>494</v>
+        <v>172</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11495,19 +11455,19 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>492</v>
+        <v>174</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
@@ -11516,7 +11476,7 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>497</v>
+        <v>175</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11527,10 +11487,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11541,7 +11501,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11553,17 +11513,15 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>499</v>
+        <v>136</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11600,31 +11558,29 @@
         <v>82</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC80" s="2"/>
       <c r="AD80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>498</v>
+        <v>181</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -11633,7 +11589,7 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11644,12 +11600,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>82</v>
       </c>
@@ -11670,13 +11628,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>183</v>
+        <v>495</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>184</v>
+        <v>496</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>185</v>
+        <v>497</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11727,19 +11685,19 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11748,7 +11706,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11759,12 +11717,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>82</v>
       </c>
@@ -11773,7 +11733,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -11785,13 +11745,13 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>500</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>136</v>
+        <v>501</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>137</v>
+        <v>502</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11830,17 +11790,19 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC82" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11849,7 +11811,7 @@
         <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>141</v>
@@ -11872,13 +11834,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -11900,13 +11862,13 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11957,7 +11919,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11989,13 +11951,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>82</v>
@@ -12017,13 +11979,13 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12074,7 +12036,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12095,7 +12057,7 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12106,13 +12068,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>82</v>
@@ -12134,13 +12096,13 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12191,7 +12153,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12223,44 +12185,46 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>521</v>
+        <v>135</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>522</v>
+        <v>261</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12308,7 +12272,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12317,7 +12281,7 @@
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>141</v>
@@ -12340,14 +12304,12 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12368,13 +12330,13 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>525</v>
+        <v>157</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12425,19 +12387,19 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>193</v>
+        <v>516</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -12446,57 +12408,53 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>135</v>
+        <v>521</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>273</v>
+        <v>522</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12544,19 +12502,19 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>275</v>
+        <v>520</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
@@ -12565,7 +12523,7 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>133</v>
+        <v>524</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12576,10 +12534,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12602,13 +12560,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12635,13 +12593,11 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>82</v>
+        <v>528</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -12659,7 +12615,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12680,21 +12636,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>174</v>
+        <v>529</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12717,13 +12673,13 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12750,13 +12706,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -12774,7 +12730,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12795,13 +12751,13 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO90" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="91">
@@ -12820,7 +12776,7 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -12832,7 +12788,7 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>538</v>
@@ -12840,8 +12796,12 @@
       <c r="M91" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -12865,11 +12825,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y91" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="Z91" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -12893,7 +12855,7 @@
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>82</v>
@@ -12908,21 +12870,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12933,7 +12895,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -12945,13 +12907,13 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12978,37 +12940,37 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>305</v>
+        <v>114</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF92" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>543</v>
-      </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>82</v>
@@ -13023,21 +12985,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>187</v>
+        <v>551</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13060,20 +13022,16 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13097,13 +13055,13 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>305</v>
+        <v>114</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13121,7 +13079,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13142,21 +13100,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13167,7 +13125,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13179,13 +13137,13 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>207</v>
+        <v>521</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13212,13 +13170,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>561</v>
+        <v>82</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13236,13 +13194,13 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>82</v>
@@ -13282,7 +13240,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
@@ -13294,7 +13252,7 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>566</v>
@@ -13330,10 +13288,10 @@
         <v>114</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13357,7 +13315,7 @@
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>82</v>
@@ -13372,21 +13330,21 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO95" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>571</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13397,7 +13355,7 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13409,15 +13367,17 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>533</v>
+        <v>253</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13466,13 +13426,13 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
@@ -13493,15 +13453,15 @@
         <v>82</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>576</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13524,13 +13484,13 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>578</v>
+        <v>172</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>579</v>
+        <v>173</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13557,13 +13517,13 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>578</v>
+        <v>82</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>580</v>
+        <v>82</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -13581,7 +13541,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>577</v>
+        <v>174</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13593,7 +13553,7 @@
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -13602,25 +13562,25 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>581</v>
+        <v>175</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>582</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13639,16 +13599,16 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>584</v>
+        <v>178</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>585</v>
+        <v>179</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>586</v>
+        <v>153</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13698,7 +13658,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>583</v>
+        <v>181</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13710,7 +13670,7 @@
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -13719,7 +13679,7 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>587</v>
+        <v>175</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
@@ -13730,42 +13690,46 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -13813,19 +13777,19 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -13834,7 +13798,7 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
@@ -13845,21 +13809,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
@@ -13871,17 +13835,15 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>135</v>
+        <v>580</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>190</v>
+        <v>581</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -13930,78 +13892,76 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>193</v>
+        <v>579</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>82</v>
+        <v>583</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>187</v>
+        <v>391</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>82</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>273</v>
+        <v>587</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>274</v>
+        <v>588</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14025,13 +13985,13 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>82</v>
+        <v>590</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14049,19 +14009,19 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>275</v>
+        <v>586</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
@@ -14070,7 +14030,7 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>133</v>
+        <v>592</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
@@ -14081,10 +14041,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14092,7 +14052,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>90</v>
@@ -14107,15 +14067,17 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>592</v>
+        <v>195</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14140,13 +14102,13 @@
         <v>82</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14164,10 +14126,10 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>90</v>
@@ -14182,24 +14144,24 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>596</v>
+        <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14222,17 +14184,15 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N103" t="s" s="2">
         <v>601</v>
       </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14257,13 +14217,13 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>603</v>
+        <v>82</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14281,7 +14241,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14302,7 +14262,7 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>604</v>
+        <v>383</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
@@ -14313,10 +14273,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14339,17 +14299,15 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>207</v>
+        <v>603</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14374,13 +14332,13 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>610</v>
+        <v>82</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -14398,7 +14356,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14416,24 +14374,24 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>82</v>
+        <v>606</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>82</v>
+        <v>607</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14456,15 +14414,17 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>238</v>
+        <v>609</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M105" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -14513,7 +14473,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14531,247 +14491,15 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>82</v>
+        <v>613</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>395</v>
+        <v>614</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO107" t="s" s="2">
         <v>82</v>
       </c>
     </row>
